--- a/statistics/HistoricalDistanceData/historical_distance/Q5439799-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5439799-en.xlsx
@@ -31,19 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>New York City and Metro Area Traffic on WABC-TV</t>
+  </si>
+  <si>
+    <t>Snow day - February 15th, 2007</t>
+  </si>
+  <si>
     <t>Power Crews Work to Get the Electricity On</t>
   </si>
   <si>
-    <t>New York City and Metro Area Traffic on WABC-TV</t>
+    <t>Quebec City teen disappears in snowstorm</t>
   </si>
   <si>
     <t>The Newark Advocate</t>
   </si>
   <si>
-    <t>Quebec City teen disappears in snowstorm</t>
-  </si>
-  <si>
-    <t>Snow day - February 15th, 2007</t>
+    <t>Snowstorm sends semis spinning, heads east</t>
   </si>
   <si>
     <t>Homepage of The National Weather Service Forecast Office in Taunton, MA.</t>
@@ -52,7 +55,13 @@
     <t>February 13-14, 2007, Winter Storm</t>
   </si>
   <si>
-    <t>Snowstorm sends semis spinning, heads east</t>
+    <t>Storm ties up travel, closes schools and interferes with Valentine's Day flower deliveries</t>
+  </si>
+  <si>
+    <t>Tornado heaps misery on Katrina-hit area</t>
+  </si>
+  <si>
+    <t>NOAA's National Weather Service</t>
   </si>
   <si>
     <t>Purdue's Student Newspaper</t>
@@ -64,30 +73,21 @@
     <t>February 13th-14th, 2007, Snowfall Totals</t>
   </si>
   <si>
-    <t>Tornado heaps misery on Katrina-hit area</t>
-  </si>
-  <si>
-    <t>Storm ties up travel, closes schools and interferes with Valentine's Day flower deliveries</t>
-  </si>
-  <si>
-    <t>NOAA's National Weather Service</t>
+    <t>2007-02-14T05:27:00UTC</t>
+  </si>
+  <si>
+    <t>2007-02-15T00:00:00UTC</t>
   </si>
   <si>
     <t>2007-02-16T17:07:00UTC</t>
   </si>
   <si>
-    <t>2007-02-14T05:27:00UTC</t>
+    <t>2007-02-15T14:00:00UTC</t>
   </si>
   <si>
     <t>2021-01-07T06:43:00UTC</t>
   </si>
   <si>
-    <t>2007-02-15T14:00:00UTC</t>
-  </si>
-  <si>
-    <t>2007-02-15T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -97,19 +97,22 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20070219052447/http://abclocal.go.com/wabc/story?section=traffic&amp;id=5032401</t>
+  </si>
+  <si>
+    <t>http://theithacan.org/am/publish/news/200702_Snow_day.shtml</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20071008203835/http://www.wtopnews.com/?nid=25&amp;sid=1060143</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20070219052447/http://abclocal.go.com/wabc/story?section=traffic&amp;id=5032401</t>
+    <t>https://www.cbc.ca/news/canada/montreal/quebec-city-teen-disappears-in-snowstorm-1.671099</t>
   </si>
   <si>
     <t>http://www.newarkadvocate.com/apps/pbcs.dll/article?AID=/20070214/NEWS01/702140340/1002</t>
   </si>
   <si>
-    <t>https://www.cbc.ca/news/canada/montreal/quebec-city-teen-disappears-in-snowstorm-1.671099</t>
-  </si>
-  <si>
-    <t>http://theithacan.org/am/publish/news/200702_Snow_day.shtml</t>
+    <t>https://web.archive.org/web/20070302025710/http://edition.cnn.com/2007/WEATHER/02/13/cold.weather.ap/index.html?eref=rss_latest</t>
   </si>
   <si>
     <t>http://www.erh.noaa.gov/box/productDisplay.php?product=BOSPNSBOX&amp;version=0</t>
@@ -118,7 +121,13 @@
     <t>https://web.archive.org/web/20110611122931/http://www.erh.noaa.gov/er/iln/feb13_14_2007_winterstorm/winterstormfeb1314.htm</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20070302025710/http://edition.cnn.com/2007/WEATHER/02/13/cold.weather.ap/index.html?eref=rss_latest</t>
+    <t>http://www1.whdh.com/news/articles/national/BO43150/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20070216004642/http://www.cnn.com/2007/WEATHER/02/13/new.orleans.tornado.ap/index.html</t>
+  </si>
+  <si>
+    <t>http://www.erh.noaa.gov/er/bgm/WeatherEvents/Snow/april162007/april162007.shtml</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20110727193207/http://archive.purdueexponent.org/?module=article&amp;story_id=4176</t>
@@ -128,15 +137,6 @@
   </si>
   <si>
     <t>http://www.crh.noaa.gov/dtx/display_event.php?file=snow200702141159</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20070216004642/http://www.cnn.com/2007/WEATHER/02/13/new.orleans.tornado.ap/index.html</t>
-  </si>
-  <si>
-    <t>http://www1.whdh.com/news/articles/national/BO43150/</t>
-  </si>
-  <si>
-    <t>http://www.erh.noaa.gov/er/bgm/WeatherEvents/Snow/april162007/april162007.shtml</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -555,7 +555,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -572,7 +572,7 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>5120</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -606,7 +606,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>5120</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
